--- a/测试_processed.xlsx
+++ b/测试_processed.xlsx
@@ -1,40 +1,174 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mingxuan.chang_sx\askecho_demo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B3E362-4117-4763-AB31-1B8B665387FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>今天苏州天气怎么样</t>
+  </si>
+  <si>
+    <t>### 苏州市今日天气（2025年11月12日 星期三）  
+- **天气**：阴转多云  
+- **气温**：12-16℃  
+- **湿度**：76%  
+- **风向/风力**：北风 2级  
+- **气压**：1022.0hPa  
+- **空气质量**：AQI 52（良），主要污染物为PM10  
+- **日出/日落**：06:22 / 17:01  
+#### 逐小时预报（部分时段）  
+| 时间   | 天气 | 气温 | 风向/风力 |  
+|--------|------|------|-----------|  
+| 12:00  | 多云 | 16℃  | 东北风 3级 |  
+| 14:00  | 多云 | 16℃  | 东北风 3级 |  
+| 18:00  | 多云 | 15℃  | 东北风 2级 |  
+| 21:00  | 多云 | 13℃  | 东北风 2级 |  
+#### 生活指数  
+- **运动指数**：不适宜（气压偏低，避免剧烈运动）  
+- **洗车指数**：较适宜（未来一天无雨，风力小，车辆可保持清洁一天）</t>
+  </si>
+  <si>
+    <t>这个月北京有什么演唱会</t>
+  </si>
+  <si>
+    <t>### **2025年11月北京演唱会推荐**  
+根据当前时间（2025年11月12日），以下为**11月剩余场次及近期热门演唱会信息**，涵盖流行、摇滚、经典等多种风格，供你选择：
+#### **一、11月中下旬重点演唱会**  
+- **《刘宇宁2025演唱会-北京站》**  
+  - **时间**：11月15日-16日（双场）  
+  - **地点**：华熙生物·润百颜中心  
+  - **亮点**：以“时空折叠”为主题，融合歌手、演员双重身份叙事，舞台设计包含巨型机械装置与光影矩阵，歌单涵盖《让酒》《寻一个你》等OST爆款及未公开新歌，打造沉浸式音乐宇宙。  
+- **《[毕雯珺](https://open.toutiao.com/article/url/?param=6hc8hs6W7EB2teQ9CY2wktHxAyTiTpGLnrgxM66hZpM3SPYUMdkcak5PX5TpDMMXUEA5dv1bfE2XquQnARKSRZpvnWn5Bm6JndV39mhQLR4NJSNxgpRCUpsAvo2MPBGNdLwpfxyhYFWisqxd87ZjGsziWnia8y1LBz9wqAf6sSwN3upHHpFqj5MDcykMPpVikvLTT9xREiCRhCchnEARohDMWVhdwZcfM15tj7SzLteCh2P&amp;partner=agent_bot_7527195965674047003_default_content&amp;version=3)“毕达之地”生日演唱会》**  
+  - **时间**：11月15日  
+  - **地点**：国家体育馆  
+  - **亮点**：以“记忆碎片”为核心概念，串联出道以来的经典曲目与生日特别企划，舞台视觉呈现“异度空间”感，强调与粉丝的情感共鸣。  
+- **《王赫野“去吹一场野的风”2.0演唱会》**  
+  - **时间**：11月21日-22日（双场）  
+  - **地点**：华熙LIVE·五棵松  
+  - **亮点**：新生代实力歌手的第二轮巡演，主题聚焦“成长与梦想”，舞台设计融入自然元素，现场将演绎《大风吹》《篇章》等热单，并解锁全新创作曲目。  
+- **《薛凯琪「Let Me Love You」演唱会》**  
+  - **时间**：11月22日  
+  - **地点**：国家体育馆  
+  - **亮点**：港乐天后的内地巡演北京站，曲目涵盖《奇洛李维斯回信》《男孩像你》等经典，舞台风格兼具复古与现代，分享沉寂五年后的音乐重生故事。  
+- **《郭静＜天亮之前＞演唱会》**  
+  - **时间**：11月22日  
+  - **地点**：M空间  
+  - **亮点**：以“黑暗与[黎明](https://open.toutiao.com/article/url/?param=6hc8hs6W7EB2teQ9CY2wktHxAyTiTpGLnrgxM66hZpLw1LE8fDoxJ5MSxbyTKsJaR9WMkDDAStpwAZHUBK93K9CeN9RLF5BKSUWq6JgZDPenem3oS9U1FwWb8uG6cVnj1B23GZJU35g8oNLweYNrwFHxXLT8dTohpBRwGsSNNst61Dox2PVmvPy7hjB6hr4qRdYxYroW4bHusKiXP5WCuQAx5RGeL9hJryaZKAUCBrEKKBD&amp;partner=agent_bot_7527195965674047003_default_content&amp;version=3)”为主题，演绎《下一个天亮》《心墙》等治愈系金曲，舞台氛围静谧抒情，适合沉浸式聆听。  
+- **《白小白《十年一见·赴黄海之约》演唱会》**  
+  - **时间**：11月27日  
+  - **地点**：国家体育馆  
+  - **亮点**：纪念出道十周年的巡回演出，主打“约定与陪伴”，歌单包含《最美情侣》《最后我们没在一起》等流行作品，现场设置粉丝互动环节。  
+- **《[沙一汀](https://open.toutiao.com/article/url/?param=6hc8hs6W7EB2teQ9CY2wktHxAyTiTpGLnrgxM66hZpLvzcsrBd4C91pujuGsXA33WPd5q8tMCoTPB9s5PUoRprgC6YcgNf7UkvL6N6GjcxMobDcPko2MHA7FHN9KjN21MjMpV6FxG2iuHFdJXRG9j41nCfSB7et9cLLNobeaW2WarGAAppGfr8oyrVgysd9XfVf7XkwfTZnajDzsPdfhFGdMRoJzo7yEKduqYy79KoScZnX&amp;partner=agent_bot_7527195965674047003_default_content&amp;version=3)EL「听汀」北京演唱会》**  
+  - **时间**：11月29日  
+  - **地点**：国家体育馆  
+  - **亮点**：新生代说唱歌手的体育馆级演出，舞台设计模拟“真人秀现场”，演绎《早点早点》《敏感小孩》等代表作，融合潮流视觉与互动科技。  
+#### **二、12月及后续热门场次预告**  
+若11月场次已售罄或时间冲突，可关注以下近期演出：  
+- **《陆虎演唱会》**：12月6日，国家体育馆，以“音乐叙事”为核心，涵盖影视OST与个人创作。  
+- **《曾轶可演唱会》**：12月7日，北京展览馆，独立音乐风格，解锁新歌与经典改编。  
+- **《威神V演唱会》**：12月14日，华熙LIVE·五棵松，韩国男子组合的中文专场，主打动感舞台与跨国粉丝互动。  
+#### **三、购票及观看攻略**  
+1. **官方渠道**：通过[大麦](https://open.toutiao.com/article/url/?param=6hc8hs6W7EB2teQ9CY2wktHxAyTiTpGLnrgxM66hZp6pd8B4BMpVcaDa33NufW8GFec75zHGHPWz9UYvf8YjhcGwt1vTjM8Nmw3EXLExUDdtj7xwFRQWeCJRajovWJvMKUmYxvYjLV2Ji3aHTfP8oUjypu5G1y5gEVjEKEqHGiQ47WfHFTJy1S47TS7aVWYp7B8YtF8udqZZfrShSuBqc76MhW4JLBMiTq6SY8Kw9uZjBf5&amp;partner=agent_bot_7527195965674047003_default_content&amp;version=3)、猫眼等平台搜索歌手姓名或演唱会主题，实时查询余票（部分场次需提前预约）。  
+2. **场馆交通**：华熙LIVE·五棵松、国家体育馆等场馆临近地铁（如1号线、8号线），建议绿色出行，避免拥堵。  
+3. **注意事项**：携带身份证原件，提前1-2小时到场安检；部分场馆禁止携带荧光棒、专业相机，可关注官方“观演须知”。  
+#### **四、经典回顾（11月已结束场次）**  
+若你错过以下演出，可关注后续巡演动态：  
+- **蔡琴「不要告别」演唱会**（11月8日，首都体育馆）：经典金曲专场，含《被遗忘的时光》《你的眼神》等时光金曲。  
+- **滨崎步亚洲演唱会**（11月1日，华熙LIVE·五棵松）：日本天后的内地首秀，回顾出道20年音乐生涯。  
+### **获取更多信息**  
+- **实时更新**：微信搜索公众号“北京本地宝”，回复“演唱会”获取最新场次、购票链接及场馆指南。  
+- **粉丝社群**：关注歌手官方微博或后援会，获取应援攻略、现场直播等独家内容。  
+根据兴趣选择场次，建议尽早购票，热门演出票源紧张哦！ 🎶</t>
+  </si>
+  <si>
+    <t>红军城已经被俄军掌控了嘛</t>
+  </si>
+  <si>
+    <t>根据最新战场信息，**红军城（乌称波克罗夫斯克）已被俄军完全占领**。  
+### 一、红军城的战局进展  
+1. **决定性投降与全面控制**  
+   11月8日，红军城东北部迪纳斯区的残余乌军在被俄军彻底包围后全部投降，标志着该区域清剿行动结束。至此，俄军已完全控制红军城所有区域，仅极小部分因地图更新问题可能存在灰色地带，但不影响整体战略胜利。  
+2. **战略意义**  
+   红军城作为交通枢纽和战略要地，其占领使俄军获得了自由调配兵力和物资的能力，显著削弱了乌军在该地区的防御纵深，并为后续进攻里夫诺地区提供了后勤支撑。  
+### 二、后续军事行动与乌军态势  
+- **俄军推进至米尔诺拉德**  
+  占领红军城后，俄军沿公路向东推进至米尔诺拉德西北郊区，控制该村南部房屋及周边阵地（如养猪场、树林地带），并对乌军形成包围态势。乌军在米尔诺拉德的防御已失去战略意义，撤退通道基本被封锁。  
+- **乌军抵抗有限**  
+  尽管乌军在罗金斯克西部发起反攻，但规模较小且未改变战局。红军城的失守导致乌军防御体系出现重大缺口，后续抵抗能力进一步被削弱。  
+### 三、战场影响与下一步动向  
+俄军控制红军城后，已打开通往顿巴斯地区“双子城”（斯拉维扬斯克和克拉马托儿斯克）的通道，为后续战略突破奠定基础。目前，俄军正集中力量巩固防线并压缩乌军剩余据点，战局整体向有利于俄方的方向发展。  
+综上，红军城的全面占领是俄军在顿巴斯战役中的关键进展，标志着其在该地区的军事优势进一步扩大。</t>
+  </si>
+  <si>
+    <t>最近苏州会下雨吗</t>
+  </si>
+  <si>
+    <t>根据最新天气预报，**苏州市近期无降水**。  
+- **11月12日（今天）**：阴转多云，气温12-16℃，北风4级，全天无雨。  
+- **11月13日（明天）**：晴，气温10-18℃，北风1级，无降水。  
+- **11月14日-16日（未来三天）**：均为晴或多云天气，气温9-20℃，风力较小，持续无雨。  
+**总结**：未来一周内苏州以晴好天气为主，无降雨，可放心安排户外活动。</t>
+  </si>
+  <si>
+    <t>推荐腾飞产业园附近的火锅店</t>
+  </si>
+  <si>
+    <t>综合相关信息，目前未找到与“腾飞产业园”直接相关的火锅店推荐记录。由于“腾飞产业园”具体位置未明确（国内多个城市均有同名园区），以下为你推荐杭州及全国范围内口碑较高的火锅品牌，供你参考：
+### **一、杭州热门火锅品牌推荐**
+- **《秀上签串串火锅》**：集火锅与串串为一体的大型餐厅，以丰富口味、高颜值菜品和年轻化定位著称，适合朋友聚会或打卡体验。  
+- **《传记潮发牛肉火锅》**：主打新鲜牛肉火锅，研发团队实力强，定期推出新品，在杭州本地食客中口碑较高，食材品质和汤底风味均获认可。  
+- **《巴派红门火锅》**：源自重庆的火锅品牌，主打正宗川渝风味，涵盖火锅、干锅、香锅等多种品类，适合喜欢重口味的消费者。  
+### **二、全国连锁热门火锅品牌（可查询就近门店）**
+- **《集渔泰式海鲜火锅》**：以泰式酸辣汤底和新鲜海鲜为特色，总部提供完善的加盟支持和培训体系，部分门店设有沉浸式用餐环境。  
+- **《山城小龙女火锅》**：重庆传统火锅品牌，坚持“好料还原老味道”，锅底辣而不燥，食材采购自原产地，适合偏好经典川味火锅的人群。  
+- **《小肥羊火锅》**：主打“不蘸小料涮羊肉”，以天然健康食材和标准化口味闻名，全国门店超500家，适合家庭或多人聚餐。  
+### **三、获取附近火锅店信息的方法**
+1. **地图软件搜索**：打开百度地图、高德地图等，定位“腾飞产业园”，搜索“火锅”或“火锅店”，可查看周边实时营业的餐厅评分、距离及用户评价。  
+2. **美食平台推荐**：在大众点评、美团等平台，筛选“腾飞产业园”附近的火锅品类，按评分、销量或“人气推荐”排序，结合用户晒图和评价选择。  
+3. **本地生活社群**：加入产业园周边的业主群、同事群或美食分享群，咨询本地居民推荐，获取更真实的消费体验反馈。  
+建议优先通过地图或美食平台查询实时信息，结合自身口味偏好（如川渝火锅、潮汕牛肉火锅、海鲜火锅等）选择合适的餐厅。</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-      <family val="3"/>
-      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -53,80 +187,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -392,175 +467,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>今天苏州天气怎么样</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>### 苏州市今日天气（2025年11月12日 星期三）  
-- **天气**：阴转多云  
-- **气温**：12-16℃  
-- **湿度**：76%  
-- **风向/风力**：北风 2级  
-- **气压**：1022.0hPa  
-- **空气质量**：AQI 52（良），主要污染物为PM10  
-- **日出/日落**：06:22 / 17:01  
-#### 逐小时预报（部分时段）  
-| 时间   | 天气 | 气温 | 风向/风力 |  
-|--------|------|------|-----------|  
-| 12:00  | 多云 | 16℃  | 东北风 3级 |  
-| 14:00  | 多云 | 16℃  | 东北风 3级 |  
-| 18:00  | 多云 | 15℃  | 东北风 2级 |  
-| 21:00  | 多云 | 13℃  | 东北风 2级 |  
-#### 生活指数  
-- **运动指数**：不适宜（气压偏低，避免剧烈运动）  
-- **洗车指数**：较适宜（未来一天无雨，风力小，车辆可保持清洁一天）</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>这个月北京有什么演唱会</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>### **2025年11月北京演唱会推荐**  
-根据当前时间（2025年11月12日），以下为**11月剩余场次及近期热门演唱会信息**，涵盖流行、摇滚、经典等多种风格，供你选择：
-#### **一、11月中下旬重点演唱会**  
-- **《刘宇宁2025演唱会-北京站》**  
-  - **时间**：11月15日-16日（双场）  
-  - **地点**：华熙生物·润百颜中心  
-  - **亮点**：以“时空折叠”为主题，融合歌手、演员双重身份叙事，舞台设计包含巨型机械装置与光影矩阵，歌单涵盖《让酒》《寻一个你》等OST爆款及未公开新歌，打造沉浸式音乐宇宙。  
-- **《[毕雯珺](https://open.toutiao.com/article/url/?param=6hc8hs6W7EB2teQ9CY2wktHxAyTiTpGLnrgxM66hZpM3SPYUMdkcak5PX5TpDMMXUEA5dv1bfE2XquQnARKSRZpvnWn5Bm6JndV39mhQLR4NJSNxgpRCUpsAvo2MPBGNdLwpfxyhYFWisqxd87ZjGsziWnia8y1LBz9wqAf6sSwN3upHHpFqj5MDcykMPpVikvLTT9xREiCRhCchnEARohDMWVhdwZcfM15tj7SzLteCh2P&amp;partner=agent_bot_7527195965674047003_default_content&amp;version=3)“毕达之地”生日演唱会》**  
-  - **时间**：11月15日  
-  - **地点**：国家体育馆  
-  - **亮点**：以“记忆碎片”为核心概念，串联出道以来的经典曲目与生日特别企划，舞台视觉呈现“异度空间”感，强调与粉丝的情感共鸣。  
-- **《王赫野“去吹一场野的风”2.0演唱会》**  
-  - **时间**：11月21日-22日（双场）  
-  - **地点**：华熙LIVE·五棵松  
-  - **亮点**：新生代实力歌手的第二轮巡演，主题聚焦“成长与梦想”，舞台设计融入自然元素，现场将演绎《大风吹》《篇章》等热单，并解锁全新创作曲目。  
-- **《薛凯琪「Let Me Love You」演唱会》**  
-  - **时间**：11月22日  
-  - **地点**：国家体育馆  
-  - **亮点**：港乐天后的内地巡演北京站，曲目涵盖《奇洛李维斯回信》《男孩像你》等经典，舞台风格兼具复古与现代，分享沉寂五年后的音乐重生故事。  
-- **《郭静＜天亮之前＞演唱会》**  
-  - **时间**：11月22日  
-  - **地点**：M空间  
-  - **亮点**：以“黑暗与[黎明](https://open.toutiao.com/article/url/?param=6hc8hs6W7EB2teQ9CY2wktHxAyTiTpGLnrgxM66hZpLw1LE8fDoxJ5MSxbyTKsJaR9WMkDDAStpwAZHUBK93K9CeN9RLF5BKSUWq6JgZDPenem3oS9U1FwWb8uG6cVnj1B23GZJU35g8oNLweYNrwFHxXLT8dTohpBRwGsSNNst61Dox2PVmvPy7hjB6hr4qRdYxYroW4bHusKiXP5WCuQAx5RGeL9hJryaZKAUCBrEKKBD&amp;partner=agent_bot_7527195965674047003_default_content&amp;version=3)”为主题，演绎《下一个天亮》《心墙》等治愈系金曲，舞台氛围静谧抒情，适合沉浸式聆听。  
-- **《白小白《十年一见·赴黄海之约》演唱会》**  
-  - **时间**：11月27日  
-  - **地点**：国家体育馆  
-  - **亮点**：纪念出道十周年的巡回演出，主打“约定与陪伴”，歌单包含《最美情侣》《最后我们没在一起》等流行作品，现场设置粉丝互动环节。  
-- **《[沙一汀](https://open.toutiao.com/article/url/?param=6hc8hs6W7EB2teQ9CY2wktHxAyTiTpGLnrgxM66hZpLvzcsrBd4C91pujuGsXA33WPd5q8tMCoTPB9s5PUoRprgC6YcgNf7UkvL6N6GjcxMobDcPko2MHA7FHN9KjN21MjMpV6FxG2iuHFdJXRG9j41nCfSB7et9cLLNobeaW2WarGAAppGfr8oyrVgysd9XfVf7XkwfTZnajDzsPdfhFGdMRoJzo7yEKduqYy79KoScZnX&amp;partner=agent_bot_7527195965674047003_default_content&amp;version=3)EL「听汀」北京演唱会》**  
-  - **时间**：11月29日  
-  - **地点**：国家体育馆  
-  - **亮点**：新生代说唱歌手的体育馆级演出，舞台设计模拟“真人秀现场”，演绎《早点早点》《敏感小孩》等代表作，融合潮流视觉与互动科技。  
-#### **二、12月及后续热门场次预告**  
-若11月场次已售罄或时间冲突，可关注以下近期演出：  
-- **《陆虎演唱会》**：12月6日，国家体育馆，以“音乐叙事”为核心，涵盖影视OST与个人创作。  
-- **《曾轶可演唱会》**：12月7日，北京展览馆，独立音乐风格，解锁新歌与经典改编。  
-- **《威神V演唱会》**：12月14日，华熙LIVE·五棵松，韩国男子组合的中文专场，主打动感舞台与跨国粉丝互动。  
-#### **三、购票及观看攻略**  
-1. **官方渠道**：通过[大麦](https://open.toutiao.com/article/url/?param=6hc8hs6W7EB2teQ9CY2wktHxAyTiTpGLnrgxM66hZp6pd8B4BMpVcaDa33NufW8GFec75zHGHPWz9UYvf8YjhcGwt1vTjM8Nmw3EXLExUDdtj7xwFRQWeCJRajovWJvMKUmYxvYjLV2Ji3aHTfP8oUjypu5G1y5gEVjEKEqHGiQ47WfHFTJy1S47TS7aVWYp7B8YtF8udqZZfrShSuBqc76MhW4JLBMiTq6SY8Kw9uZjBf5&amp;partner=agent_bot_7527195965674047003_default_content&amp;version=3)、猫眼等平台搜索歌手姓名或演唱会主题，实时查询余票（部分场次需提前预约）。  
-2. **场馆交通**：华熙LIVE·五棵松、国家体育馆等场馆临近地铁（如1号线、8号线），建议绿色出行，避免拥堵。  
-3. **注意事项**：携带身份证原件，提前1-2小时到场安检；部分场馆禁止携带荧光棒、专业相机，可关注官方“观演须知”。  
-#### **四、经典回顾（11月已结束场次）**  
-若你错过以下演出，可关注后续巡演动态：  
-- **蔡琴「不要告别」演唱会**（11月8日，首都体育馆）：经典金曲专场，含《被遗忘的时光》《你的眼神》等时光金曲。  
-- **滨崎步亚洲演唱会**（11月1日，华熙LIVE·五棵松）：日本天后的内地首秀，回顾出道20年音乐生涯。  
-### **获取更多信息**  
-- **实时更新**：微信搜索公众号“北京本地宝”，回复“演唱会”获取最新场次、购票链接及场馆指南。  
-- **粉丝社群**：关注歌手官方微博或后援会，获取应援攻略、现场直播等独家内容。  
-根据兴趣选择场次，建议尽早购票，热门演出票源紧张哦！ 🎶</t>
-        </is>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3"/>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>红军城已经被俄军掌控了嘛</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>根据最新战场信息，**红军城（乌称波克罗夫斯克）已被俄军完全占领**。  
-### 一、红军城的战局进展  
-1. **决定性投降与全面控制**  
-   11月8日，红军城东北部迪纳斯区的残余乌军在被俄军彻底包围后全部投降，标志着该区域清剿行动结束。至此，俄军已完全控制红军城所有区域，仅极小部分因地图更新问题可能存在灰色地带，但不影响整体战略胜利。  
-2. **战略意义**  
-   红军城作为交通枢纽和战略要地，其占领使俄军获得了自由调配兵力和物资的能力，显著削弱了乌军在该地区的防御纵深，并为后续进攻里夫诺地区提供了后勤支撑。  
-### 二、后续军事行动与乌军态势  
-- **俄军推进至米尔诺拉德**  
-  占领红军城后，俄军沿公路向东推进至米尔诺拉德西北郊区，控制该村南部房屋及周边阵地（如养猪场、树林地带），并对乌军形成包围态势。乌军在米尔诺拉德的防御已失去战略意义，撤退通道基本被封锁。  
-- **乌军抵抗有限**  
-  尽管乌军在罗金斯克西部发起反攻，但规模较小且未改变战局。红军城的失守导致乌军防御体系出现重大缺口，后续抵抗能力进一步被削弱。  
-### 三、战场影响与下一步动向  
-俄军控制红军城后，已打开通往顿巴斯地区“双子城”（斯拉维扬斯克和克拉马托儿斯克）的通道，为后续战略突破奠定基础。目前，俄军正集中力量巩固防线并压缩乌军剩余据点，战局整体向有利于俄方的方向发展。  
-综上，红军城的全面占领是俄军在顿巴斯战役中的关键进展，标志着其在该地区的军事优势进一步扩大。</t>
-        </is>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>最近苏州会下雨吗</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>根据最新天气预报，**苏州市近期无降水**。  
-- **11月12日（今天）**：阴转多云，气温12-16℃，北风4级，全天无雨。  
-- **11月13日（明天）**：晴，气温10-18℃，北风1级，无降水。  
-- **11月14日-16日（未来三天）**：均为晴或多云天气，气温9-20℃，风力较小，持续无雨。  
-**总结**：未来一周内苏州以晴好天气为主，无降雨，可放心安排户外活动。</t>
-        </is>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>推荐腾飞产业园附近的火锅店</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>综合相关信息，目前未找到与“腾飞产业园”直接相关的火锅店推荐记录。由于“腾飞产业园”具体位置未明确（国内多个城市均有同名园区），以下为你推荐杭州及全国范围内口碑较高的火锅品牌，供你参考：
-### **一、杭州热门火锅品牌推荐**
-- **《秀上签串串火锅》**：集火锅与串串为一体的大型餐厅，以丰富口味、高颜值菜品和年轻化定位著称，适合朋友聚会或打卡体验。  
-- **《传记潮发牛肉火锅》**：主打新鲜牛肉火锅，研发团队实力强，定期推出新品，在杭州本地食客中口碑较高，食材品质和汤底风味均获认可。  
-- **《巴派红门火锅》**：源自重庆的火锅品牌，主打正宗川渝风味，涵盖火锅、干锅、香锅等多种品类，适合喜欢重口味的消费者。  
-### **二、全国连锁热门火锅品牌（可查询就近门店）**
-- **《集渔泰式海鲜火锅》**：以泰式酸辣汤底和新鲜海鲜为特色，总部提供完善的加盟支持和培训体系，部分门店设有沉浸式用餐环境。  
-- **《山城小龙女火锅》**：重庆传统火锅品牌，坚持“好料还原老味道”，锅底辣而不燥，食材采购自原产地，适合偏好经典川味火锅的人群。  
-- **《小肥羊火锅》**：主打“不蘸小料涮羊肉”，以天然健康食材和标准化口味闻名，全国门店超500家，适合家庭或多人聚餐。  
-### **三、获取附近火锅店信息的方法**
-1. **地图软件搜索**：打开百度地图、高德地图等，定位“腾飞产业园”，搜索“火锅”或“火锅店”，可查看周边实时营业的餐厅评分、距离及用户评价。  
-2. **美食平台推荐**：在大众点评、美团等平台，筛选“腾飞产业园”附近的火锅品类，按评分、销量或“人气推荐”排序，结合用户晒图和评价选择。  
-3. **本地生活社群**：加入产业园周边的业主群、同事群或美食分享群，咨询本地居民推荐，获取更真实的消费体验反馈。  
-建议优先通过地图或美食平台查询实时信息，结合自身口味偏好（如川渝火锅、潮汕牛肉火锅、海鲜火锅等）选择合适的餐厅。</t>
-        </is>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>